--- a/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
+++ b/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Venezuela, RB</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t>Source: SNC, 2009</t>
+  </si>
+  <si>
+    <t>SNC</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de Contrataciones (SNC), Foro de Estandares Internacionales, Papel del Contador Publico en la PYMEs Venezolanas. Available at http://fccpv.org/cont3/data/files/Foro-II-May2009-Presentacion-1.pdf</t>
   </si>
 </sst>
 </file>
@@ -54,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -65,6 +74,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -97,26 +112,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -124,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -140,44 +158,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
+++ b/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Venezuela, RB</t>
   </si>
@@ -50,6 +50,45 @@
   </si>
   <si>
     <t>Source: SNC, 2009</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>&lt;100,000 UT</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>51-100 &lt;br/&gt;&lt;250 Industry, &lt;br/&gt;&lt;500 Trade, &lt;br/&gt;&lt;100 Service, &lt;br/&gt;&lt;50 Agriculture</t>
+  </si>
+  <si>
+    <t>100,000 UT to 250,000 UT &lt;br/&gt;&lt;750,000 Industry, &lt;br/&gt;&lt;1,000,000 Trade, &lt;br/&gt;&lt;500,000 Serv., &lt;br/&gt;&lt;300,000 Agriculture</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;100 &lt;br/&gt;&gt;=250 Industry, &lt;br/&gt;&gt;=500 Trade, &lt;br/&gt;&gt;=100 Service, &lt;br/&gt;&gt;=50 Agriculture</t>
+  </si>
+  <si>
+    <t>&gt;250,000 UT &lt;br/&gt;&gt;=750,000 Industry, &lt;br/&gt;&gt;=1,000,000 Trade, &lt;br/&gt;&gt;=500,000 Serv.,&lt;br/&gt; &gt;=300,000 Agriculture</t>
   </si>
   <si>
     <t>SNC</t>
@@ -142,7 +181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -203,14 +242,81 @@
         <v>12</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
+      <c r="A22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
+++ b/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
@@ -31,16 +31,16 @@
     <t>MSMEs</t>
   </si>
   <si>
+    <t>Enterprises density (per 1000 people)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Enterprises (absolute #)</t>
   </si>
   <si>
     <t>57227</t>
-  </si>
-  <si>
-    <t>Enterprises density (per 1000 people)</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Enterprises (% of total)</t>

--- a/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
+++ b/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
@@ -94,7 +94,7 @@
     <t>SNC</t>
   </si>
   <si>
-    <t>Servicio Nacional de Contrataciones (SNC), Foro de Estandares Internacionales, Papel del Contador Publico en la PYMEs Venezolanas. Available at http://fccpv.org/cont3/data/files/Foro-II-May2009-Presentacion-1.pdf</t>
+    <t>Decreto No. 6.215, con Rango, Valor y Fuerza de Ley para la Promoción y Desarrollo de la Pequeña y Mediana Industria y Demás Unidades de Producción Social.- (Véase No. 5.890 Extraordinario de la GACETA OFICIAL DE LA REPUBLICA BOLIVARIANA DE VENEZUELA, de esta misma fecha). (G. O. de la R. B. de V. No. 38.984 de fecha 31/07/2008). Available at http://www.veneconomy.com/site/files/leyes/ley31.pdf</t>
   </si>
 </sst>
 </file>

--- a/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
+++ b/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
@@ -76,19 +76,35 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>51-100 &lt;br/&gt;&lt;250 Industry, &lt;br/&gt;&lt;500 Trade, &lt;br/&gt;&lt;100 Service, &lt;br/&gt;&lt;50 Agriculture</t>
-  </si>
-  <si>
-    <t>100,000 UT to 250,000 UT &lt;br/&gt;&lt;750,000 Industry, &lt;br/&gt;&lt;1,000,000 Trade, &lt;br/&gt;&lt;500,000 Serv., &lt;br/&gt;&lt;300,000 Agriculture</t>
+    <t>51-100 
+&lt;250 Industry, 
+&lt;500 Trade, 
+&lt;100 Service, 
+&lt;50 Agriculture</t>
+  </si>
+  <si>
+    <t>100,000 UT to 250,000 UT 
+&lt;750,000 Industry, 
+&lt;1,000,000 Trade, 
+&lt;500,000 Serv., 
+&lt;300,000 Agriculture</t>
   </si>
   <si>
     <t>Large</t>
   </si>
   <si>
-    <t>&gt;100 &lt;br/&gt;&gt;=250 Industry, &lt;br/&gt;&gt;=500 Trade, &lt;br/&gt;&gt;=100 Service, &lt;br/&gt;&gt;=50 Agriculture</t>
-  </si>
-  <si>
-    <t>&gt;250,000 UT &lt;br/&gt;&gt;=750,000 Industry, &lt;br/&gt;&gt;=1,000,000 Trade, &lt;br/&gt;&gt;=500,000 Serv.,&lt;br/&gt; &gt;=300,000 Agriculture</t>
+    <t>&gt;100 
+&gt;=250 Industry, 
+&gt;=500 Trade, 
+&gt;=100 Service, 
+&gt;=50 Agriculture</t>
+  </si>
+  <si>
+    <t>&gt;250,000 UT 
+&gt;=750,000 Industry, 
+&gt;=1,000,000 Trade, 
+&gt;=500,000 Serv.,
+ &gt;=300,000 Agriculture</t>
   </si>
   <si>
     <t>SNC</t>

--- a/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
+++ b/data/MSME Country Indicators - Venezuela, RB Summary.xlsx
@@ -46,7 +46,7 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>97.7</t>
+    <t>97.68</t>
   </si>
   <si>
     <t>Source: SNC, 2009</t>
